--- a/employee.xlsx
+++ b/employee.xlsx
@@ -5,16 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikola.stankovic\Desktop\Python_Test\GIT\Decision Tree and Random Forest\employee_churn-DecisionTree_RandomForest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikola.stankovic\Desktop\Python_Test\GIT\Decision Tree and Random Forest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12915"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -33,77 +38,77 @@
     <t>years_at_company</t>
   </si>
   <si>
+    <t>renting_last_1year</t>
+  </si>
+  <si>
+    <t>promotion_last_2years</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
     <t>left</t>
   </si>
   <si>
-    <t>salary</t>
+    <t>0.57</t>
   </si>
   <si>
     <t>0.53</t>
   </si>
   <si>
+    <t>0.78</t>
+  </si>
+  <si>
     <t>0.88</t>
   </si>
   <si>
     <t>0.77</t>
   </si>
   <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
     <t>0.54</t>
   </si>
   <si>
-    <t>0.81</t>
-  </si>
-  <si>
-    <t>0.55</t>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.71</t>
   </si>
   <si>
     <t>0.56</t>
   </si>
   <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>0.82</t>
-  </si>
-  <si>
     <t>0.62</t>
   </si>
   <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
     <t>0.69</t>
-  </si>
-  <si>
-    <t>renting_last_1year</t>
-  </si>
-  <si>
-    <t>0.80</t>
-  </si>
-  <si>
-    <t>promotion_last_2years</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -111,317 +116,16 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Futura Com Book"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Futura Com Book"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Futura Com Book"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Futura Com Book"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006100"/>
-      <name val="Futura Com Book"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF9C0006"/>
-      <name val="Futura Com Book"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF9C6500"/>
-      <name val="Futura Com Book"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Futura Com Book"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Futura Com Book"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Futura Com Book"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Futura Com Book"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Futura Com Book"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Futura Com Book"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Futura Com Book"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Futura Com Book"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Futura Com Book"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -429,204 +133,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -936,24 +451,24 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -976,10 +491,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -1002,10 +517,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1028,7 +543,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -1054,10 +569,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1080,10 +595,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1106,10 +621,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1135,7 +650,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1158,10 +673,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1184,10 +699,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1210,10 +725,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1236,10 +751,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>0</v>
